--- a/benchmarks/cscs2022/xlsx/Random/200.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/200.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC944D-96A3-417E-A309-08A1E08ED96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929895E-6554-4E4B-A951-E3E1C85A75F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,614 +35,620 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
-  </si>
-  <si>
-    <t>f121</t>
-  </si>
-  <si>
-    <t>f122</t>
-  </si>
-  <si>
-    <t>f123</t>
-  </si>
-  <si>
-    <t>f124</t>
-  </si>
-  <si>
-    <t>f125</t>
-  </si>
-  <si>
-    <t>f126</t>
-  </si>
-  <si>
-    <t>f127</t>
-  </si>
-  <si>
-    <t>f128</t>
-  </si>
-  <si>
-    <t>f129</t>
-  </si>
-  <si>
-    <t>f130</t>
-  </si>
-  <si>
-    <t>f131</t>
-  </si>
-  <si>
-    <t>f132</t>
-  </si>
-  <si>
-    <t>f133</t>
-  </si>
-  <si>
-    <t>f134</t>
-  </si>
-  <si>
-    <t>f135</t>
-  </si>
-  <si>
-    <t>f136</t>
-  </si>
-  <si>
-    <t>f137</t>
-  </si>
-  <si>
-    <t>f138</t>
-  </si>
-  <si>
-    <t>f139</t>
-  </si>
-  <si>
-    <t>f140</t>
-  </si>
-  <si>
-    <t>f141</t>
-  </si>
-  <si>
-    <t>f142</t>
-  </si>
-  <si>
-    <t>f143</t>
-  </si>
-  <si>
-    <t>f144</t>
-  </si>
-  <si>
-    <t>f145</t>
-  </si>
-  <si>
-    <t>f146</t>
-  </si>
-  <si>
-    <t>f147</t>
-  </si>
-  <si>
-    <t>f148</t>
-  </si>
-  <si>
-    <t>f149</t>
-  </si>
-  <si>
-    <t>f150</t>
-  </si>
-  <si>
-    <t>f151</t>
-  </si>
-  <si>
-    <t>f152</t>
-  </si>
-  <si>
-    <t>f153</t>
-  </si>
-  <si>
-    <t>f154</t>
-  </si>
-  <si>
-    <t>f155</t>
-  </si>
-  <si>
-    <t>f156</t>
-  </si>
-  <si>
-    <t>f157</t>
-  </si>
-  <si>
-    <t>f158</t>
-  </si>
-  <si>
-    <t>f159</t>
-  </si>
-  <si>
-    <t>f160</t>
-  </si>
-  <si>
-    <t>f161</t>
-  </si>
-  <si>
-    <t>f162</t>
-  </si>
-  <si>
-    <t>f163</t>
-  </si>
-  <si>
-    <t>f164</t>
-  </si>
-  <si>
-    <t>f165</t>
-  </si>
-  <si>
-    <t>f166</t>
-  </si>
-  <si>
-    <t>f167</t>
-  </si>
-  <si>
-    <t>f168</t>
-  </si>
-  <si>
-    <t>f169</t>
-  </si>
-  <si>
-    <t>f170</t>
-  </si>
-  <si>
-    <t>f171</t>
-  </si>
-  <si>
-    <t>f172</t>
-  </si>
-  <si>
-    <t>f173</t>
-  </si>
-  <si>
-    <t>f174</t>
-  </si>
-  <si>
-    <t>f175</t>
-  </si>
-  <si>
-    <t>f176</t>
-  </si>
-  <si>
-    <t>f177</t>
-  </si>
-  <si>
-    <t>f178</t>
-  </si>
-  <si>
-    <t>f179</t>
-  </si>
-  <si>
-    <t>f180</t>
-  </si>
-  <si>
-    <t>f181</t>
-  </si>
-  <si>
-    <t>f182</t>
-  </si>
-  <si>
-    <t>f183</t>
-  </si>
-  <si>
-    <t>f184</t>
-  </si>
-  <si>
-    <t>f185</t>
-  </si>
-  <si>
-    <t>f186</t>
-  </si>
-  <si>
-    <t>f187</t>
-  </si>
-  <si>
-    <t>f188</t>
-  </si>
-  <si>
-    <t>f189</t>
-  </si>
-  <si>
-    <t>f190</t>
-  </si>
-  <si>
-    <t>f191</t>
-  </si>
-  <si>
-    <t>f192</t>
-  </si>
-  <si>
-    <t>f193</t>
-  </si>
-  <si>
-    <t>f194</t>
-  </si>
-  <si>
-    <t>f195</t>
-  </si>
-  <si>
-    <t>f196</t>
-  </si>
-  <si>
-    <t>f197</t>
-  </si>
-  <si>
-    <t>f198</t>
-  </si>
-  <si>
-    <t>f199</t>
-  </si>
-  <si>
-    <t>f200</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F132</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>F134</t>
+  </si>
+  <si>
+    <t>F135</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>F137</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>F139</t>
+  </si>
+  <si>
+    <t>F140</t>
+  </si>
+  <si>
+    <t>F141</t>
+  </si>
+  <si>
+    <t>F142</t>
+  </si>
+  <si>
+    <t>F143</t>
+  </si>
+  <si>
+    <t>F144</t>
+  </si>
+  <si>
+    <t>F145</t>
+  </si>
+  <si>
+    <t>F146</t>
+  </si>
+  <si>
+    <t>F147</t>
+  </si>
+  <si>
+    <t>F148</t>
+  </si>
+  <si>
+    <t>F149</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>F151</t>
+  </si>
+  <si>
+    <t>F152</t>
+  </si>
+  <si>
+    <t>F153</t>
+  </si>
+  <si>
+    <t>F154</t>
+  </si>
+  <si>
+    <t>F155</t>
+  </si>
+  <si>
+    <t>F156</t>
+  </si>
+  <si>
+    <t>F157</t>
+  </si>
+  <si>
+    <t>F158</t>
+  </si>
+  <si>
+    <t>F159</t>
+  </si>
+  <si>
+    <t>F160</t>
+  </si>
+  <si>
+    <t>F161</t>
+  </si>
+  <si>
+    <t>F162</t>
+  </si>
+  <si>
+    <t>F163</t>
+  </si>
+  <si>
+    <t>F164</t>
+  </si>
+  <si>
+    <t>F165</t>
+  </si>
+  <si>
+    <t>F166</t>
+  </si>
+  <si>
+    <t>F167</t>
+  </si>
+  <si>
+    <t>F168</t>
+  </si>
+  <si>
+    <t>F169</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>F171</t>
+  </si>
+  <si>
+    <t>F172</t>
+  </si>
+  <si>
+    <t>F173</t>
+  </si>
+  <si>
+    <t>F174</t>
+  </si>
+  <si>
+    <t>F175</t>
+  </si>
+  <si>
+    <t>F176</t>
+  </si>
+  <si>
+    <t>F177</t>
+  </si>
+  <si>
+    <t>F178</t>
+  </si>
+  <si>
+    <t>F179</t>
+  </si>
+  <si>
+    <t>F180</t>
+  </si>
+  <si>
+    <t>F181</t>
+  </si>
+  <si>
+    <t>F182</t>
+  </si>
+  <si>
+    <t>F183</t>
+  </si>
+  <si>
+    <t>F184</t>
+  </si>
+  <si>
+    <t>F185</t>
+  </si>
+  <si>
+    <t>F186</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>F188</t>
+  </si>
+  <si>
+    <t>F189</t>
+  </si>
+  <si>
+    <t>F190</t>
+  </si>
+  <si>
+    <t>F191</t>
+  </si>
+  <si>
+    <t>F192</t>
+  </si>
+  <si>
+    <t>F193</t>
+  </si>
+  <si>
+    <t>F194</t>
+  </si>
+  <si>
+    <t>F195</t>
+  </si>
+  <si>
+    <t>F196</t>
+  </si>
+  <si>
+    <t>F197</t>
+  </si>
+  <si>
+    <t>F198</t>
+  </si>
+  <si>
+    <t>F199</t>
+  </si>
+  <si>
+    <t>F200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -958,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection sqref="A1:A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2">
-        <v>39.972797340184371</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>28.638355750340033</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>15.037025842526825</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>21.384313132839655</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>40.426175003778148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>13.676892851745503</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>4.3826507480731456</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>33.776635937736131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>53.045186640471513</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>61.281547529091732</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>35.590146592111232</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>72.389300287139193</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>58.334592715732207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>31.131932900105788</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>55.614326734169566</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>68.006649539066046</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>44.053196312528343</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>46.622336406226388</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>64.304065286383562</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>7.3296055614326736</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>67.628834819404574</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>67.704397763336871</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>20.32643191778752</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2">
-        <v>23.651201450808522</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2">
-        <v>25.691400936980504</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>9.9048510372796752</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>55.061612852909064</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>37.123693651536421</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>50.53813757604118</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>6.6292310092029325</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>33.848073623459676</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>33.770082670410233</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>44.454843238184367</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1442,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>20.9015754172516</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>55.451567618156297</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>53.969739510216819</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>10.762751520823585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>8.6569957884885351</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>53.03384807362346</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1526,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>72.8435501481828</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>45.078770862579944</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1554,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>53.111839026672911</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="2">
-        <v>19.341756356262675</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1582,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>66.760255810326001</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="2">
-        <v>58.727187646233041</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="2">
-        <v>74.091405396973954</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="2">
-        <v>25.26906878802059</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>6.0832943378568087</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1652,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="2">
-        <v>71.205740134144435</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1666,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="2">
-        <v>33.380127905163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>62.578470891429333</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>36.212251371175576</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>17.313156677459855</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>8.5904975880525996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>61.7855018833014</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1750,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>62.974955395493289</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>37.33562413269015</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1778,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>64.296570409039845</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1792,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>47.578140487675938</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1806,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>7.6653670785700125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>48.305028745126542</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,7 +1840,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>8.986982092116568</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1848,7 +1854,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>53.855811802022068</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>39.978854159783261</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1876,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>45.926121720742749</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1890,7 +1896,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>35.617524615079631</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>63.834005154298559</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1918,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>47.842463490385249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>22.070970726227447</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1946,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>47.974624991739908</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>42.093438181457742</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1974,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>52.203793035088879</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1988,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>25.176766008061854</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2002,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>21.278001718099517</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>38.525077644882046</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>11.324293133294864</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2044,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>62.319676860934791</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2058,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2">
-        <v>8.3669936526255047</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2072,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2">
-        <v>29.068090017311022</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2">
-        <v>4.3998845931909987</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2100,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2">
-        <v>44.215233698788225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2114,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>67.008078476630118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,7 +2134,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>26.976341604154644</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2142,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2">
-        <v>10.819388343912291</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2156,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2">
-        <v>17.960184650894401</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2170,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="2">
-        <v>43.061165608770914</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="2">
-        <v>32.241777264858626</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2198,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="2">
-        <v>50.346220427005193</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2212,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="2">
-        <v>67.512983266012697</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2226,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2">
-        <v>53.015002885170226</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2">
-        <v>43.421811886901331</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,7 +2260,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2">
-        <v>65.709751875360638</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2268,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2">
-        <v>33.179457587997696</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2282,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="2">
-        <v>26.182919792267743</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2296,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="2">
-        <v>47.821696480092321</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2316,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="2">
-        <v>17.455279861511826</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2324,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="2">
-        <v>71.047316791690719</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2338,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="2">
-        <v>52.510098095787654</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2">
-        <v>56.477207155222153</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2">
-        <v>57.559145989613391</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,7 +2386,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="2">
-        <v>9.0115460433680656</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2394,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="2">
-        <v>7.6973622453768895</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2408,7 +2414,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="2">
-        <v>16.14568666103445</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2422,7 +2428,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>84.389373885290524</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2436,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>33.23007603491974</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2450,7 +2456,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="2">
-        <v>19.149535342157137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>68.149816952970994</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2478,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="D108" s="2">
-        <v>48.906411339528773</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2492,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>39.519384211020373</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2506,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="2">
-        <v>49.75124378109453</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2520,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="2">
-        <v>49.938984323664698</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2534,7 +2540,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="2">
-        <v>12.578616352201259</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2548,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="2">
-        <v>31.822021965643479</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2562,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2">
-        <v>25.251102975687601</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2">
-        <v>38.205200413029196</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,7 +2596,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="2">
-        <v>18.210832629306299</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2604,7 +2610,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="2">
-        <v>64.207265558997463</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2618,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>91.711255045527082</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2632,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="2">
-        <v>15.488594762038861</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2646,7 +2652,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2">
-        <v>53.412184361212802</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,7 +2666,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="2">
-        <v>8.9176757720829816</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2674,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="2">
-        <v>14.456021777902938</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,7 +2694,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="2">
-        <v>68.900779123251667</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2702,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="2">
-        <v>79.038768422040746</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2716,7 +2722,7 @@
         <v>13</v>
       </c>
       <c r="D125" s="2">
-        <v>51.910260020651457</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2730,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="D126" s="2">
-        <v>56.335493160547159</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2744,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="2">
-        <v>43.646508279337652</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2758,7 +2764,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="2">
-        <v>2.9697624190064795</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,7 +2778,7 @@
         <v>14</v>
       </c>
       <c r="D129" s="2">
-        <v>17.098632109431243</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,7 +2792,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="2">
-        <v>48.596112311015119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,7 +2806,7 @@
         <v>14</v>
       </c>
       <c r="D131" s="2">
-        <v>66.324694024478049</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2814,7 +2820,7 @@
         <v>14</v>
       </c>
       <c r="D132" s="2">
-        <v>13.408927285817136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2828,7 +2834,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="2">
-        <v>8.6393088552915778</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2842,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="2">
-        <v>25.017998560115188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2856,7 +2862,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>38.336933045356368</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2870,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="2">
-        <v>17.098632109431243</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2884,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="D137" s="2">
-        <v>60.025197984161267</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2898,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="D138" s="2">
-        <v>35.367170626349889</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2912,7 +2918,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="2">
-        <v>49.766018718502515</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2926,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="D140" s="2">
-        <v>19.078473722102231</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2940,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="D141" s="2">
-        <v>24.208063354931607</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2954,7 +2960,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="2">
-        <v>62.81497480201584</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2968,7 +2974,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="2">
-        <v>31.857451403887691</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2982,7 +2988,7 @@
         <v>14</v>
       </c>
       <c r="D144" s="2">
-        <v>48.686105111591068</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2996,7 +3002,7 @@
         <v>14</v>
       </c>
       <c r="D145" s="2">
-        <v>11.519078473722102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3010,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="D146" s="2">
-        <v>88.372930165586752</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3024,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="2">
-        <v>27.447804175665947</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3038,7 +3044,7 @@
         <v>14</v>
       </c>
       <c r="D148" s="2">
-        <v>84.323254139668833</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3052,7 +3058,7 @@
         <v>14</v>
       </c>
       <c r="D149" s="2">
-        <v>63.714902807775381</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3066,7 +3072,7 @@
         <v>14</v>
       </c>
       <c r="D150" s="2">
-        <v>55.345572354211662</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3080,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="D151" s="2">
-        <v>28.185601004946218</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3094,7 +3100,7 @@
         <v>15</v>
       </c>
       <c r="D152" s="2">
-        <v>34.937583418387376</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="2">
-        <v>70.189212530423177</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3122,7 +3128,7 @@
         <v>15</v>
       </c>
       <c r="D154" s="2">
-        <v>31.561592211666795</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3136,7 +3142,7 @@
         <v>15</v>
       </c>
       <c r="D155" s="2">
-        <v>60.767841720970402</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3150,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="D156" s="2">
-        <v>26.772395383528306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3164,7 +3170,7 @@
         <v>15</v>
       </c>
       <c r="D157" s="2">
-        <v>38.78464316558059</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3178,7 +3184,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="2">
-        <v>3.7685483237811099</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3192,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="D159" s="2">
-        <v>61.395933108267258</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3206,7 +3212,7 @@
         <v>15</v>
       </c>
       <c r="D160" s="2">
-        <v>22.218732825626127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3220,7 +3226,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="2">
-        <v>64.222344351103089</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3234,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="D162" s="2">
-        <v>22.846824212922979</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3248,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="2">
-        <v>53.23074507340818</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3262,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="D164" s="2">
-        <v>60.532307450734081</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3276,7 +3282,7 @@
         <v>15</v>
       </c>
       <c r="D165" s="2">
-        <v>36.429300463217402</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3290,7 +3296,7 @@
         <v>15</v>
       </c>
       <c r="D166" s="2">
-        <v>33.288843526733139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3304,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>11.933736358640182</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3318,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="2">
-        <v>43.495328570306981</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3332,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="D169" s="2">
-        <v>69.247075449477904</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3346,7 +3352,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="2">
-        <v>24.88812122163775</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3360,7 +3366,7 @@
         <v>15</v>
       </c>
       <c r="D171" s="2">
-        <v>2.904922666247939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3374,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="2">
-        <v>58.962078982491953</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3388,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="D173" s="2">
-        <v>77.098217790688537</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3402,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="D174" s="2">
-        <v>1.177671351181597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3416,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="2">
-        <v>61.160398838030936</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="D176" s="2">
-        <v>10.203378145467081</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3444,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>55.98069631161669</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3458,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="D178" s="2">
-        <v>55.498104102033786</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,7 +3478,7 @@
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>38.538435022406063</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3486,7 +3492,7 @@
         <v>16</v>
       </c>
       <c r="D180" s="2">
-        <v>68.872802481902795</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3500,7 +3506,7 @@
         <v>16</v>
       </c>
       <c r="D181" s="2">
-        <v>33.160978972768014</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3514,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="D182" s="2">
-        <v>41.709755256808002</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3528,7 +3534,7 @@
         <v>16</v>
       </c>
       <c r="D183" s="2">
-        <v>59.014133057566355</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3542,7 +3548,7 @@
         <v>16</v>
       </c>
       <c r="D184" s="2">
-        <v>43.502240606687351</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3556,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="D185" s="2">
-        <v>15.85660117200965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3570,7 +3576,7 @@
         <v>16</v>
       </c>
       <c r="D186" s="2">
-        <v>52.326783867631853</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3584,7 +3590,7 @@
         <v>16</v>
       </c>
       <c r="D187" s="2">
-        <v>13.305756635642883</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3598,7 +3604,7 @@
         <v>16</v>
       </c>
       <c r="D188" s="2">
-        <v>60.255084453636677</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3612,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="D189" s="2">
-        <v>18.338503964150295</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3626,7 +3632,7 @@
         <v>16</v>
       </c>
       <c r="D190" s="2">
-        <v>18.545329196828682</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3640,7 +3646,7 @@
         <v>16</v>
       </c>
       <c r="D191" s="2">
-        <v>61.289210617028616</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3654,7 +3660,7 @@
         <v>16</v>
       </c>
       <c r="D192" s="2">
-        <v>7.8593588417786977</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3668,7 +3674,7 @@
         <v>16</v>
       </c>
       <c r="D193" s="2">
-        <v>50.189589796621853</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3682,7 +3688,7 @@
         <v>16</v>
       </c>
       <c r="D194" s="2">
-        <v>60.737676663219581</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3696,7 +3702,7 @@
         <v>16</v>
       </c>
       <c r="D195" s="2">
-        <v>56.049638055842813</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3710,7 +3716,7 @@
         <v>16</v>
       </c>
       <c r="D196" s="2">
-        <v>42.123405722164769</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3724,7 +3730,7 @@
         <v>16</v>
       </c>
       <c r="D197" s="2">
-        <v>27.36987245777318</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3738,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>46.190968631506372</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3752,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="D199" s="2">
-        <v>56.049638055842813</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3766,10 +3772,11 @@
         <v>16</v>
       </c>
       <c r="D200" s="2">
-        <v>7.0320579110651495</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>